--- a/BinarySearch.xlsx
+++ b/BinarySearch.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\DataStructuresPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E077D5-15BF-4CBC-9146-FE0690FF9C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264B688-281B-4A13-A24E-0EB0CEFDAADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Bubble Sort" sheetId="2" r:id="rId2"/>
+    <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>[12, 15, 17, 19, 21, 24, 45, 67]</t>
   </si>
@@ -138,17 +139,41 @@
     <t>IndexVal</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Array Length</t>
+  </si>
+  <si>
+    <t>1st Iteration</t>
+  </si>
+  <si>
+    <t>Total Steps</t>
+  </si>
+  <si>
+    <t>2nd Iteration</t>
+  </si>
+  <si>
+    <t>3rd Iteration</t>
+  </si>
+  <si>
+    <t>4th Iteration</t>
+  </si>
+  <si>
+    <t>5th Iteration</t>
+  </si>
+  <si>
+    <t>6th Iteration</t>
+  </si>
+  <si>
+    <t>7th Iteration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +189,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,13 +218,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40E12E2-234C-46AF-A374-AA229AA200DA}">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,158 +983,984 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4040F1-AC52-4929-8B72-716007765B56}">
-  <dimension ref="D3:K22"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B1">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2">
+        <v>29</v>
+      </c>
+      <c r="H26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>29</v>
+      </c>
+      <c r="H28" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2">
+        <v>29</v>
+      </c>
+      <c r="H33" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>28</v>
+      </c>
+      <c r="G34" s="2">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287EBC3-9ECE-4EA2-BA1E-4B627565FB23}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B1">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D22">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BinarySearch.xlsx
+++ b/BinarySearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\DataStructuresPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264B688-281B-4A13-A24E-0EB0CEFDAADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E33910-ED22-4127-A0B2-9E9B8E880E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Bubble Sort" sheetId="2" r:id="rId2"/>
     <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
+    <sheet name="Selection Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Quick Sort" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>[12, 15, 17, 19, 21, 24, 45, 67]</t>
   </si>
@@ -167,6 +169,57 @@
   </si>
   <si>
     <t>7th Iteration</t>
+  </si>
+  <si>
+    <t>Hoare Partition</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Pivot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The Fundamentals</t>
+  </si>
+  <si>
+    <t>Freezed</t>
+  </si>
+  <si>
+    <t>Swap between Start and End Since 15(end) is less than 29(start</t>
+  </si>
+  <si>
+    <t>Start and End</t>
+  </si>
+  <si>
+    <t>28&gt;15, hence no swap between start and end</t>
+  </si>
+  <si>
+    <t>Lomuto Partition</t>
+  </si>
+  <si>
+    <t>Partitioned Index</t>
+  </si>
+  <si>
+    <t>Partitioned Index and I</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Swap since I&lt;Partitioned Index</t>
+  </si>
+  <si>
+    <t>Pivot and I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -196,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +262,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93D1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,22 +346,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF93D1FF"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -986,7 +1180,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1735,7 +1929,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,13 +1945,13 @@
         <v>38</v>
       </c>
       <c r="C1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <v>29</v>
       </c>
       <c r="E1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1785,13 +1979,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>29</v>
       </c>
       <c r="E4" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1808,19 +2002,19 @@
         <v>38</v>
       </c>
       <c r="B5" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>29</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
@@ -1834,19 +2028,19 @@
         <v>39</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>15</v>
@@ -1860,22 +2054,22 @@
         <v>40</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2">
         <v>28</v>
@@ -1895,16 +2089,16 @@
         <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1924,13 +2118,13 @@
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1963,4 +2157,1255 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715AC2-69C5-4194-BD64-05134C146D49}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E3F03-790A-41E2-A579-6A28FC71A7D9}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11">
+        <v>29</v>
+      </c>
+      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
+        <v>28</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>28</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12">
+        <v>28</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="H21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>15</v>
+      </c>
+      <c r="H24" s="10">
+        <v>38</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>15</v>
+      </c>
+      <c r="H25" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>29</v>
+      </c>
+      <c r="H26" s="10">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>29</v>
+      </c>
+      <c r="H27" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>29</v>
+      </c>
+      <c r="H28" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>29</v>
+      </c>
+      <c r="H29" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>29</v>
+      </c>
+      <c r="H30" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="23">
+        <v>28</v>
+      </c>
+      <c r="H31" s="23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="13">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15</v>
+      </c>
+      <c r="H35" s="5">
+        <v>28</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="18">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15</v>
+      </c>
+      <c r="H36" s="5">
+        <v>28</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="13">
+        <v>38</v>
+      </c>
+      <c r="C37" s="17">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5">
+        <v>28</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" s="18">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
+      <c r="H38" s="5">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" s="13">
+        <v>38</v>
+      </c>
+      <c r="D39" s="17">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15</v>
+      </c>
+      <c r="H39" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+      <c r="D40" s="18">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15</v>
+      </c>
+      <c r="H40" s="5">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41" s="13">
+        <v>38</v>
+      </c>
+      <c r="E41" s="17">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15</v>
+      </c>
+      <c r="H41" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" s="18">
+        <v>38</v>
+      </c>
+      <c r="F42" s="19">
+        <v>2</v>
+      </c>
+      <c r="G42" s="19">
+        <v>15</v>
+      </c>
+      <c r="H42" s="5">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" s="13">
+        <v>38</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2</v>
+      </c>
+      <c r="G43" s="19">
+        <v>15</v>
+      </c>
+      <c r="H43" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>38</v>
+      </c>
+      <c r="G44" s="19">
+        <v>15</v>
+      </c>
+      <c r="H44" s="5">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13">
+        <v>38</v>
+      </c>
+      <c r="G45" s="17">
+        <v>15</v>
+      </c>
+      <c r="H45" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="21">
+        <v>38</v>
+      </c>
+      <c r="H46" s="20">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" s="13">
+        <v>38</v>
+      </c>
+      <c r="H47" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>28</v>
+      </c>
+      <c r="H48" s="20">
+        <v>38</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BinarySearch.xlsx
+++ b/BinarySearch.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\DataStructuresPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E33910-ED22-4127-A0B2-9E9B8E880E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1755901-BF3C-475E-8FAC-02441CE7CB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="8" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Bubble Sort" sheetId="2" r:id="rId2"/>
     <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
-    <sheet name="Selection Sort" sheetId="4" r:id="rId4"/>
-    <sheet name="Quick Sort" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Selection Sort" sheetId="4" r:id="rId6"/>
+    <sheet name="Quick Sort" sheetId="5" r:id="rId7"/>
+    <sheet name="Merge Sort" sheetId="7" r:id="rId8"/>
+    <sheet name="Shell Sort" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>[12, 15, 17, 19, 21, 24, 45, 67]</t>
   </si>
@@ -220,6 +224,90 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Array 1</t>
+  </si>
+  <si>
+    <t>Array 2</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A </t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>B-A</t>
+  </si>
+  <si>
+    <t>B-B</t>
+  </si>
+  <si>
+    <t>B-A-A</t>
+  </si>
+  <si>
+    <t>B-A-B</t>
+  </si>
+  <si>
+    <t>B-B-A</t>
+  </si>
+  <si>
+    <t>B-B-B</t>
+  </si>
+  <si>
+    <t>[17,29]</t>
+  </si>
+  <si>
+    <t>[21,32]</t>
+  </si>
+  <si>
+    <t>[17,29,21,32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entire Array </t>
+  </si>
+  <si>
+    <t>A-B-A</t>
+  </si>
+  <si>
+    <t>A-B-B</t>
+  </si>
+  <si>
+    <t>Iterations Order</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Gap 3</t>
+  </si>
+  <si>
+    <t>Gap 2</t>
+  </si>
+  <si>
+    <t>Gap 1</t>
+  </si>
+  <si>
+    <t># The Motivation of doing Shell Sort is to keep the heavier elements at the end</t>
+  </si>
+  <si>
+    <t># Sorting is carried out through Insertion Sort</t>
   </si>
 </sst>
 </file>
@@ -249,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +410,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -394,11 +494,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -415,6 +550,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,13 +575,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1928,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287EBC3-9ECE-4EA2-BA1E-4B627565FB23}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,6 +2334,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD1042-E353-4C80-9911-B992F6D3A3A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CD5F3B-7B01-4071-9E61-4275B12B2438}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715AC2-69C5-4194-BD64-05134C146D49}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2393,7 +2591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E3F03-790A-41E2-A579-6A28FC71A7D9}">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -2442,15 +2640,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2638,15 +2836,15 @@
       <c r="A12" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -3029,23 +3227,23 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="23">
-        <v>28</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="G31" s="20">
+        <v>28</v>
+      </c>
+      <c r="H31" s="20">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
@@ -3075,7 +3273,7 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <v>38</v>
       </c>
       <c r="C36" s="2">
@@ -3096,7 +3294,7 @@
       <c r="H36" s="5">
         <v>28</v>
       </c>
-      <c r="K36" s="17"/>
+      <c r="K36" s="14"/>
       <c r="L36" t="s">
         <v>57</v>
       </c>
@@ -3105,7 +3303,7 @@
       <c r="B37" s="13">
         <v>38</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>9</v>
       </c>
       <c r="D37" s="2">
@@ -3123,7 +3321,7 @@
       <c r="H37" s="5">
         <v>28</v>
       </c>
-      <c r="K37" s="18"/>
+      <c r="K37" s="15"/>
       <c r="L37" t="s">
         <v>56</v>
       </c>
@@ -3132,7 +3330,7 @@
       <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="15">
         <v>38</v>
       </c>
       <c r="D38" s="2">
@@ -3161,7 +3359,7 @@
       <c r="C39" s="13">
         <v>38</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <v>29</v>
       </c>
       <c r="E39" s="2">
@@ -3184,7 +3382,7 @@
       <c r="C40">
         <v>29</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="15">
         <v>38</v>
       </c>
       <c r="E40" s="2">
@@ -3213,7 +3411,7 @@
       <c r="D41" s="13">
         <v>38</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <v>7</v>
       </c>
       <c r="F41" s="2">
@@ -3236,13 +3434,13 @@
       <c r="D42">
         <v>7</v>
       </c>
-      <c r="E42" s="18">
-        <v>38</v>
-      </c>
-      <c r="F42" s="19">
-        <v>2</v>
-      </c>
-      <c r="G42" s="19">
+      <c r="E42" s="15">
+        <v>38</v>
+      </c>
+      <c r="F42" s="16">
+        <v>2</v>
+      </c>
+      <c r="G42" s="16">
         <v>15</v>
       </c>
       <c r="H42" s="5">
@@ -3265,10 +3463,10 @@
       <c r="E43" s="13">
         <v>38</v>
       </c>
-      <c r="F43" s="17">
-        <v>2</v>
-      </c>
-      <c r="G43" s="19">
+      <c r="F43" s="14">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16">
         <v>15</v>
       </c>
       <c r="H43" s="5">
@@ -3288,10 +3486,10 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="18">
-        <v>38</v>
-      </c>
-      <c r="G44" s="19">
+      <c r="F44" s="15">
+        <v>38</v>
+      </c>
+      <c r="G44" s="16">
         <v>15</v>
       </c>
       <c r="H44" s="5">
@@ -3317,7 +3515,7 @@
       <c r="F45" s="13">
         <v>38</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="14">
         <v>15</v>
       </c>
       <c r="H45" s="5">
@@ -3340,10 +3538,10 @@
       <c r="F46">
         <v>15</v>
       </c>
-      <c r="G46" s="21">
-        <v>38</v>
-      </c>
-      <c r="H46" s="20">
+      <c r="G46" s="18">
+        <v>38</v>
+      </c>
+      <c r="H46" s="17">
         <v>28</v>
       </c>
       <c r="I46" t="s">
@@ -3369,7 +3567,7 @@
       <c r="G47" s="13">
         <v>38</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="19">
         <v>28</v>
       </c>
     </row>
@@ -3392,10 +3590,10 @@
       <c r="G48">
         <v>28</v>
       </c>
-      <c r="H48" s="20">
-        <v>38</v>
-      </c>
-      <c r="K48" s="22"/>
+      <c r="H48" s="17">
+        <v>38</v>
+      </c>
+      <c r="K48" s="19"/>
       <c r="L48" t="s">
         <v>59</v>
       </c>
@@ -3408,4 +3606,1285 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6551673-2234-417E-84FE-9CD67F82A1DE}">
+  <dimension ref="A1:O74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2">
+        <v>38</v>
+      </c>
+      <c r="G2" s="22">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="22">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="I12" s="22">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C14" s="21">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9</v>
+      </c>
+      <c r="I17" s="22">
+        <v>25</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="21">
+        <v>4</v>
+      </c>
+      <c r="D19" s="21">
+        <v>9</v>
+      </c>
+      <c r="E19" s="21">
+        <v>17</v>
+      </c>
+      <c r="F19" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="G21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>9</v>
+      </c>
+      <c r="I22" s="22">
+        <v>25</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C24" s="21">
+        <v>4</v>
+      </c>
+      <c r="D24" s="21">
+        <v>9</v>
+      </c>
+      <c r="E24" s="21">
+        <v>17</v>
+      </c>
+      <c r="F24" s="21">
+        <v>21</v>
+      </c>
+      <c r="G24" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="G26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>25</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C29" s="21">
+        <v>4</v>
+      </c>
+      <c r="D29" s="21">
+        <v>9</v>
+      </c>
+      <c r="E29" s="21">
+        <v>17</v>
+      </c>
+      <c r="F29" s="21">
+        <v>21</v>
+      </c>
+      <c r="G29" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="G31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C34" s="21">
+        <v>4</v>
+      </c>
+      <c r="D34" s="21">
+        <v>9</v>
+      </c>
+      <c r="E34" s="21">
+        <v>17</v>
+      </c>
+      <c r="F34" s="21">
+        <v>21</v>
+      </c>
+      <c r="G34" s="21">
+        <v>29</v>
+      </c>
+      <c r="H34" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="G36" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3">
+        <v>38</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C39" s="21">
+        <v>4</v>
+      </c>
+      <c r="D39" s="21">
+        <v>9</v>
+      </c>
+      <c r="E39" s="21">
+        <v>17</v>
+      </c>
+      <c r="F39" s="21">
+        <v>21</v>
+      </c>
+      <c r="G39" s="21">
+        <v>29</v>
+      </c>
+      <c r="H39" s="21">
+        <v>32</v>
+      </c>
+      <c r="I39" s="21">
+        <v>38</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2">
+        <v>32</v>
+      </c>
+      <c r="G42" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D47" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="23">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>6</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2">
+        <v>6</v>
+      </c>
+      <c r="L48" s="36">
+        <v>14</v>
+      </c>
+      <c r="M48" s="32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>4</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="33"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="33"/>
+      <c r="O50" s="24"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="23">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <v>7</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9</v>
+      </c>
+      <c r="J51" s="2">
+        <v>10</v>
+      </c>
+      <c r="K51" s="35">
+        <v>13</v>
+      </c>
+      <c r="L51" s="36"/>
+      <c r="M51" s="33"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="23">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2">
+        <v>11</v>
+      </c>
+      <c r="J52" s="2">
+        <v>12</v>
+      </c>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="33"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="33"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="33"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="23">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <v>17</v>
+      </c>
+      <c r="I58" s="2">
+        <v>19</v>
+      </c>
+      <c r="J58" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29">
+        <v>23</v>
+      </c>
+      <c r="L58" s="29">
+        <v>31</v>
+      </c>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="23">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2">
+        <v>22</v>
+      </c>
+      <c r="K59" s="30"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="33"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="23">
+        <v>32</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <v>24</v>
+      </c>
+      <c r="I61" s="2">
+        <v>26</v>
+      </c>
+      <c r="J61" s="2">
+        <v>27</v>
+      </c>
+      <c r="K61" s="29">
+        <v>30</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="33"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="23">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <v>25</v>
+      </c>
+      <c r="I62" s="2">
+        <v>28</v>
+      </c>
+      <c r="J62" s="2">
+        <v>29</v>
+      </c>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="34"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="M48:M62"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L48:L52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620EAD84-8A15-4331-8D4E-3B2EDAD0AD6F}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="3">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>28</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4">
+        <v>38</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="J4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BinarySearch.xlsx
+++ b/BinarySearch.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\DataStructuresPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1755901-BF3C-475E-8FAC-02441CE7CB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B78575-367E-4A0A-AC76-110460E7CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="8" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3" xr2:uid="{3A3B7023-76F5-4C63-A040-774CDD565DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Bubble Sort" sheetId="2" r:id="rId2"/>
     <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Selection Sort" sheetId="4" r:id="rId6"/>
-    <sheet name="Quick Sort" sheetId="5" r:id="rId7"/>
-    <sheet name="Merge Sort" sheetId="7" r:id="rId8"/>
-    <sheet name="Shell Sort" sheetId="8" r:id="rId9"/>
+    <sheet name="Selection Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Quick Sort" sheetId="5" r:id="rId5"/>
+    <sheet name="Merge Sort" sheetId="7" r:id="rId6"/>
+    <sheet name="Shell Sort" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>[12, 15, 17, 19, 21, 24, 45, 67]</t>
   </si>
@@ -308,6 +306,9 @@
   </si>
   <si>
     <t># Sorting is carried out through Insertion Sort</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1355,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287EBC3-9ECE-4EA2-BA1E-4B627565FB23}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2327,6 +2328,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,35 +2340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD1042-E353-4C80-9911-B992F6D3A3A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CD5F3B-7B01-4071-9E61-4275B12B2438}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715AC2-69C5-4194-BD64-05134C146D49}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2591,11 +2573,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E3F03-790A-41E2-A579-6A28FC71A7D9}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3608,11 +3590,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6551673-2234-417E-84FE-9CD67F82A1DE}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
@@ -4623,12 +4605,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620EAD84-8A15-4331-8D4E-3B2EDAD0AD6F}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4732,7 +4714,7 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>29</v>
       </c>
       <c r="E6" s="2">
@@ -4741,147 +4723,397 @@
       <c r="F6" s="2">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>38</v>
+      </c>
+    </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4">
-        <v>38</v>
-      </c>
-      <c r="J10" s="38" t="s">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4">
-        <v>29</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4">
+        <v>29</v>
+      </c>
+      <c r="H15" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="3">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7</v>
+      </c>
+      <c r="M19" s="2">
+        <v>38</v>
+      </c>
+      <c r="N19" s="3">
+        <v>9</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K20" s="2">
+        <v>9</v>
+      </c>
+      <c r="L20" s="3">
+        <v>7</v>
+      </c>
+      <c r="M20" s="2">
+        <v>38</v>
+      </c>
+      <c r="N20" s="2">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K21" s="2">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>38</v>
+      </c>
+      <c r="N21" s="2">
+        <v>28</v>
+      </c>
+      <c r="O21" s="2">
+        <v>7</v>
+      </c>
+      <c r="P21" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>15</v>
+      </c>
+      <c r="N22" s="2">
+        <v>28</v>
+      </c>
+      <c r="O22" s="2">
+        <v>7</v>
+      </c>
+      <c r="P22" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>28</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
+      <c r="P24" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K25" s="2">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>9</v>
+      </c>
+      <c r="N25" s="3">
+        <v>28</v>
+      </c>
+      <c r="O25" s="2">
+        <v>15</v>
+      </c>
+      <c r="P25" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K26" s="2">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>9</v>
+      </c>
+      <c r="N26" s="4">
+        <v>28</v>
+      </c>
+      <c r="O26" s="4">
+        <v>15</v>
+      </c>
+      <c r="P26" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="3">
+        <v>7</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>9</v>
+      </c>
+      <c r="N28" s="3">
+        <v>28</v>
+      </c>
+      <c r="O28" s="3">
+        <v>15</v>
+      </c>
+      <c r="P28" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>7</v>
+      </c>
+      <c r="M29" s="2">
+        <v>9</v>
+      </c>
+      <c r="N29" s="4">
+        <v>15</v>
+      </c>
+      <c r="O29" s="4">
+        <v>28</v>
+      </c>
+      <c r="P29" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="4">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="J12:Q12"/>
     <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
